--- a/targetes/dades.xlsx
+++ b/targetes/dades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marina/Desktop/catster/targetes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EBB769-ADDC-744E-8BF5-D9C1FEABC3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62171A52-B6C5-6C40-9C27-000AE9CDEA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="680" windowWidth="14580" windowHeight="17140" xr2:uid="{75E11C82-E000-D94F-99D9-A91AB955E3E6}"/>
+    <workbookView xWindow="14820" yWindow="660" windowWidth="14580" windowHeight="18460" xr2:uid="{75E11C82-E000-D94F-99D9-A91AB955E3E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
   <si>
     <t>Josep ribas i m. poal-aregall</t>
   </si>
@@ -279,13 +279,166 @@
   </si>
   <si>
     <t>any</t>
+  </si>
+  <si>
+    <t>spotify</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/6TMLHiKDHkyXiTFr8EpMnD?si=f6ae991200c44ae0</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/2CzXJpFBlOg0DMP3LWa09y?si=66f5e067875144ba</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/3QPxxHmSKtmoP7HPQhm0il?si=fc297b6c4b914f48</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/6Ss2hzEaDrOTh9CBuWNUrp?si=76bbc6a3943a4ec6</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0laDZBNXfwJwfztIjIyzw5?si=1d9e14ea176748f2</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0bc5LmSoDEy3DVw4T1QV5p?si=f01b2c885c5b4b08</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/5mfMWgmvVdr2ch156IeE13?si=f19378be5b7d46ff</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/532JxAFc5M6g3fbLJeI3D2?si=37a0c486f2f947f3</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/1vzugDTXDgZCF0QQrzB5hX?si=e45cb140f30b4306</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/1gPNgTsPjXD1TiM1tg6YJp?si=a3dc3f796d8e48f0</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/1vIv59y24ch5WHi36VGV6m?si=ce7a9994c4754e3d</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/7o5pOePCS8wlnoxGPA6VHa?si=0c18002f0b5441c5</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/7v5ULjF1WVgd26HFPT2IAz?si=f5ecc4b257384b2a</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/05PSmIGYiyhu3h4woxunJz?si=98d4c4c2b3b74bb6</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/2nZ2shb6iuB1vzoV2mFMxf?si=71d4dec488ef4aae</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/6t18lS4oVhqSgPTBAB1QES?si=f7137edbe1ca4376</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/19zi8NkSOL6WStztlMgimZ?si=bfbc6605e1d04acd</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/4DT0LPAOwvN8vKXsKHeRLn?si=6ed2fbd8f9404859</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/23lNsyN6etpTmR3kN5b1YI?si=84be65278e96480b</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/5JrtBdcpv7GRv869Rqydv7?si=bee17a101cf64258</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/54dBWgkB70BAinfPQzr1cK?si=6f2d0621ec1746ef</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0yKpCxm7S2QYkxbssgxmsx?si=6a516c46fbaa4660</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/2V58oh5emQj22lfn8xaP9I?si=bdddcb66966d40b5</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/1j6PO01ML6fQShsOau2QYU?si=aff0ee56a71e42b8</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/7quCXhBK5kDV6UJ1X22Wlz?si=ced4950c0d274c3e</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/36yV4rgw4Gl4VCFBRCd0iM?si=b63f8da2706d46b5</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/05LFQKD9j8voc2eQd7o8Iy?si=5c724b06bb974d35</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/5eSa3b9VY7VkBpB5Aldg5o?si=c3a516cdff244616</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/7uaHepT0DqbgN9ZXpzHAZP?si=2ed8167412d4401f</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/3HlNZmYEYuxulJmV5X2Uy4?si=61423baffae44d83</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/7mdgZksPWuKJ8JEH4Y5mps?si=2bc6f09fd21049fd</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/465XOLqoBgiL4vk3C94oyC?si=2a07c1511f3040b7</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/2x7vT5Ujf6K5mJofocwSM9?si=a21f9c0f3f5b4a51</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/2q6bExlGPMDD0fGJ0HSPqa?si=00369a8a63a144c0</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/4fOTtzJJChv0dnN4EovqMY?si=2c5b96172b4e454f</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/5XuaME5BgtBlXRRAPx9Two?si=2321e4994f554621</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0KTSV4NdrByhWXmuTOtcgK?si=69cf6ff363434c46</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/3RIXspBsYpDlRuvTyw1gDI?si=89a5fdbcbd7b45df</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/1auy7HS1dmZycznaKQCQoU?si=337cc8f4193245b4</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0YfRNYvmfsQCUP8PMPm7Dc?si=276bbc390c8d458c</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/1RY0VJwzxONgLTuTNMdoSq?si=f6c575782c8a4f86</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/325EdbgVQeYH0teOJwR4zV?si=8f5fb89118674886</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/242AJ8NifoFLzK2UKRnKVj?si=23c885dc9de949cc</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/06X6w1Vkn8QvXj97nUBsKQ?si=7fc5e915e56a41c1</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/32ZpKHVbjtK5NZDKRZkbVq?si=a8d78cb1e4264c59</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0fYhMttPeZwWxZtIo88U8i?si=410e241dbaec42aa</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0rmUYtY05iEgbOoeWgxL0t?si=7e8bff50e6f648a7</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/79Bm7OPyRKmgbY3Z8nU4PJ?si=a1460e6925e74a67</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/0gRIXIUFSqWqw5rXcmaf9o?si=7bffd29459b44820</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/track/1CUKmGTrJxjk4a0cYAxMXh?si=5e93dfa4cd824b82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -296,6 +449,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,14 +479,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -658,19 +822,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41456F6D-C233-CD45-B1D5-91CEE238B568}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -680,8 +845,11 @@
       <c r="C1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -691,8 +859,11 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -702,8 +873,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -713,8 +887,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -724,8 +901,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -735,8 +915,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -746,8 +929,11 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -757,8 +943,11 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -768,8 +957,11 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -779,8 +971,11 @@
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -790,8 +985,11 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -801,8 +999,11 @@
       <c r="C12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -812,8 +1013,11 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -823,8 +1027,11 @@
       <c r="C14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -834,8 +1041,11 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -845,8 +1055,11 @@
       <c r="C16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -856,8 +1069,11 @@
       <c r="C17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -867,8 +1083,11 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -878,8 +1097,11 @@
       <c r="C19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -889,8 +1111,11 @@
       <c r="C20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -900,8 +1125,11 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -911,8 +1139,11 @@
       <c r="C22" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -922,8 +1153,11 @@
       <c r="C23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -933,8 +1167,11 @@
       <c r="C24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -944,8 +1181,11 @@
       <c r="C25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -955,8 +1195,11 @@
       <c r="C26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -966,8 +1209,11 @@
       <c r="C27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -977,8 +1223,11 @@
       <c r="C28" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -988,8 +1237,11 @@
       <c r="C29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -999,8 +1251,11 @@
       <c r="C30" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
@@ -1010,8 +1265,11 @@
       <c r="C31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -1021,8 +1279,11 @@
       <c r="C32" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1032,8 +1293,11 @@
       <c r="C33" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1043,8 +1307,11 @@
       <c r="C34" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>52</v>
       </c>
@@ -1054,8 +1321,11 @@
       <c r="C35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1065,8 +1335,11 @@
       <c r="C36" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -1076,8 +1349,11 @@
       <c r="C37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -1087,8 +1363,11 @@
       <c r="C38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1098,8 +1377,11 @@
       <c r="C39" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1109,8 +1391,11 @@
       <c r="C40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>64</v>
       </c>
@@ -1120,8 +1405,11 @@
       <c r="C41" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>64</v>
       </c>
@@ -1131,8 +1419,11 @@
       <c r="C42" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -1142,8 +1433,11 @@
       <c r="C43" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
@@ -1153,8 +1447,11 @@
       <c r="C44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -1164,8 +1461,11 @@
       <c r="C45" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -1175,8 +1475,11 @@
       <c r="C46" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -1186,8 +1489,11 @@
       <c r="C47" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
@@ -1197,8 +1503,11 @@
       <c r="C48" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1208,8 +1517,11 @@
       <c r="C49" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -1219,8 +1531,11 @@
       <c r="C50" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1230,8 +1545,48 @@
       <c r="C51" t="s">
         <v>77</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{4114E053-6B38-4A47-B103-77AC4EEE4D18}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{F9785FFB-0C54-B740-A0CD-B9C6388BA451}"/>
+    <hyperlink ref="D7" r:id="rId3" xr:uid="{DC20B4F8-57DB-4A4D-95B0-29E4794684CE}"/>
+    <hyperlink ref="D10" r:id="rId4" xr:uid="{4E1D215B-4F28-CD4D-83E3-3F60ABF9F1B0}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{10E4E9B7-F565-0C4D-8391-3D50410EC183}"/>
+    <hyperlink ref="D16" r:id="rId6" xr:uid="{D32B6E2F-C92F-5F49-BE1E-88E12CB62FC4}"/>
+    <hyperlink ref="D17" r:id="rId7" xr:uid="{A222943F-9839-5646-BBC7-6F196757F5C3}"/>
+    <hyperlink ref="D18" r:id="rId8" xr:uid="{6DED873E-CC99-8442-B47C-7C6BF2B7415C}"/>
+    <hyperlink ref="D19" r:id="rId9" xr:uid="{9F924AD2-6348-084B-8610-E81CF0B26C6F}"/>
+    <hyperlink ref="D20" r:id="rId10" xr:uid="{521FCB71-EAE3-034F-9C6C-986CC6E93AF2}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{5C5A9834-7D7B-1948-B199-B9BE80F0188A}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{F6A02498-5D71-D44C-9918-B4581C093C71}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{F9CD8B9C-694C-274D-9BD2-435362C6FFC8}"/>
+    <hyperlink ref="D25" r:id="rId14" xr:uid="{9D0F4211-8DF1-6848-B63B-35FB3B0F45C4}"/>
+    <hyperlink ref="D26" r:id="rId15" xr:uid="{319003B9-F62F-B745-8D81-BBA7714FA9E3}"/>
+    <hyperlink ref="D27" r:id="rId16" xr:uid="{EF219170-155C-2849-A5FA-4563C342ADBF}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{B040ED35-1A80-434F-9788-69F3F28EFD50}"/>
+    <hyperlink ref="D30" r:id="rId18" xr:uid="{36D5475A-0988-4541-8BB6-F322DE338DFA}"/>
+    <hyperlink ref="D31" r:id="rId19" xr:uid="{B1AC78EF-187B-1947-B254-3159C3FE1F25}"/>
+    <hyperlink ref="D32" r:id="rId20" xr:uid="{355AE1E0-A240-754B-8772-A8CA17109F10}"/>
+    <hyperlink ref="D33" r:id="rId21" xr:uid="{C6DA11E8-89E5-1944-8CC0-6B6642D5D9DA}"/>
+    <hyperlink ref="D35" r:id="rId22" xr:uid="{88D20507-64F3-9A4C-870A-AC30093A0AE6}"/>
+    <hyperlink ref="D36" r:id="rId23" xr:uid="{1476349B-DD46-1F43-8705-201B54DF1FF4}"/>
+    <hyperlink ref="D37" r:id="rId24" xr:uid="{78786EBD-AC0A-624A-A730-50557BB231E0}"/>
+    <hyperlink ref="D39" r:id="rId25" xr:uid="{54694656-94FC-774D-B20E-C428144849AA}"/>
+    <hyperlink ref="D40" r:id="rId26" xr:uid="{1101EFD9-BCF4-9549-A660-19DC8AD1E0FD}"/>
+    <hyperlink ref="D41" r:id="rId27" xr:uid="{24F3FF4C-B340-A14F-B7DE-5F95DFFF2BDF}"/>
+    <hyperlink ref="D42" r:id="rId28" xr:uid="{DEF0EA1F-1F3E-F54C-9801-688FC2F12B39}"/>
+    <hyperlink ref="D43" r:id="rId29" xr:uid="{54F61F93-2290-8E48-98CE-18F3F98A8B02}"/>
+    <hyperlink ref="D44" r:id="rId30" xr:uid="{662BE1A7-EEC6-4E4D-BF1F-4F825183F01E}"/>
+    <hyperlink ref="D45" r:id="rId31" xr:uid="{C48E0491-87D4-8A47-8888-CB96628E17D6}"/>
+    <hyperlink ref="D46" r:id="rId32" xr:uid="{525422C7-027A-1F45-9979-09D6A57B1FB6}"/>
+    <hyperlink ref="D49" r:id="rId33" xr:uid="{0169007B-CB62-B944-B0C7-5D2C01F05559}"/>
+    <hyperlink ref="D50" r:id="rId34" xr:uid="{925F1FC2-11F5-F149-8D6D-3DEEA453D8EC}"/>
+    <hyperlink ref="D51" r:id="rId35" xr:uid="{94E73119-C270-504F-B44E-6B9FE075B37B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>